--- a/output/StructureDefinition-ch-etoc-composition.xlsx
+++ b/output/StructureDefinition-ch-etoc-composition.xlsx
@@ -149,7 +149,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>CH eToc Composition</t>
+    <t>&lt;p style="color:#FF0000" ;&gt;EPR&lt;/p&gt; CH eToc Composition</t>
   </si>
   <si>
     <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>

--- a/output/StructureDefinition-ch-etoc-composition.xlsx
+++ b/output/StructureDefinition-ch-etoc-composition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="477">
   <si>
     <t>Path</t>
   </si>
@@ -355,6 +355,9 @@
     <t>Identifier of the document which precedes this document in a thread</t>
   </si>
   <si>
+    <t>Identifier of the document which precedes this document in a thread.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -369,7 +372,7 @@
     <t>The person/organization who has typed/filled in the form content</t>
   </si>
   <si>
-    <t>Extension to define the information about the person that entered data and the time of the data input</t>
+    <t>Extension to define the information about the person and organization that entered data and the time of the data input</t>
   </si>
   <si>
     <t>urgentNoficationContactForThisDocument</t>
@@ -382,6 +385,9 @@
     <t>An information recipient to notify for urgent matters</t>
   </si>
   <si>
+    <t>An information recipient to notify for urgent matters (e.g. in a radiology service, the radiologist has to be called by phone right away at the time the doucment is received).</t>
+  </si>
+  <si>
     <t>urgentNoficationContactForTheResponseToThisDocument</t>
   </si>
   <si>
@@ -392,6 +398,9 @@
     <t>An information recipient to notify for urgent matters about the response</t>
   </si>
   <si>
+    <t>An information recipient to notify for urgent matters about the response. (e.g. in a clinical setting, the referring doctor has to be called by phone right away at the time the images and reports arrive. The Urgent Notification Contact for the Response can be specified already in the request. At the time the response is written, this element shall be populated to the Urgent Notification Contact element in the response.)</t>
+  </si>
+  <si>
     <t>responseReceiver</t>
   </si>
   <si>
@@ -400,6 +409,9 @@
   </si>
   <si>
     <t>Person/organization who receives the response</t>
+  </si>
+  <si>
+    <t>Receiver of the response.</t>
   </si>
   <si>
     <t>Composition.modifierExtension</t>
@@ -2376,7 +2388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>81</v>
       </c>
@@ -2392,7 +2404,7 @@
         <v>53</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>41</v>
@@ -2714,7 +2726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>97</v>
       </c>
@@ -2732,7 +2744,7 @@
         <v>53</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>41</v>
@@ -2747,7 +2759,7 @@
         <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2807,7 +2819,7 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>104</v>
@@ -2828,12 +2840,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>97</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>41</v>
@@ -2846,7 +2858,7 @@
         <v>53</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>41</v>
@@ -2855,13 +2867,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2921,7 +2933,7 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>104</v>
@@ -2942,12 +2954,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>97</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>41</v>
@@ -2960,7 +2972,7 @@
         <v>53</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>41</v>
@@ -2969,13 +2981,13 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3035,7 +3047,7 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>104</v>
@@ -3056,12 +3068,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>97</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>41</v>
@@ -3074,7 +3086,7 @@
         <v>53</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>41</v>
@@ -3083,13 +3095,13 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3149,7 +3161,7 @@
         <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>104</v>
@@ -3170,12 +3182,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>97</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>41</v>
@@ -3188,7 +3200,7 @@
         <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3197,13 +3209,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3263,7 +3275,7 @@
         <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>104</v>
@@ -3286,11 +3298,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3312,16 +3324,16 @@
         <v>98</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -3370,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3402,7 +3414,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3425,16 +3437,16 @@
         <v>54</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3484,7 +3496,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3499,24 +3511,24 @@
         <v>65</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3530,7 +3542,7 @@
         <v>53</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>54</v>
@@ -3542,16 +3554,16 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -3576,13 +3588,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3600,7 +3612,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>53</v>
@@ -3615,24 +3627,24 @@
         <v>65</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3646,7 +3658,7 @@
         <v>53</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -3655,19 +3667,19 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3696,7 +3708,7 @@
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3714,7 +3726,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>53</v>
@@ -3729,24 +3741,24 @@
         <v>65</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3760,7 +3772,7 @@
         <v>53</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -3769,19 +3781,19 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3810,7 +3822,7 @@
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3828,7 +3840,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3843,24 +3855,24 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3874,7 +3886,7 @@
         <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3883,19 +3895,19 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3944,7 +3956,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3959,24 +3971,24 @@
         <v>65</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4002,10 +4014,10 @@
         <v>55</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4056,7 +4068,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4071,7 +4083,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -4088,11 +4100,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4114,13 +4126,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4161,7 +4173,7 @@
         <v>101</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>41</v>
@@ -4170,7 +4182,7 @@
         <v>102</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4185,7 +4197,7 @@
         <v>104</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4202,7 +4214,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4228,13 +4240,13 @@
         <v>55</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4284,7 +4296,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4293,7 +4305,7 @@
         <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>65</v>
@@ -4316,7 +4328,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4342,13 +4354,13 @@
         <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4374,13 +4386,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4398,7 +4410,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4430,7 +4442,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4453,16 +4465,16 @@
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4512,7 +4524,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4527,7 +4539,7 @@
         <v>65</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -4544,7 +4556,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4570,13 +4582,13 @@
         <v>55</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4626,7 +4638,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4658,7 +4670,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4681,17 +4693,17 @@
         <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4740,7 +4752,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4755,24 +4767,24 @@
         <v>65</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4795,19 +4807,19 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4856,7 +4868,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>53</v>
@@ -4871,24 +4883,24 @@
         <v>65</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4902,7 +4914,7 @@
         <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4911,17 +4923,17 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4970,7 +4982,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>53</v>
@@ -4985,24 +4997,24 @@
         <v>65</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5028,10 +5040,10 @@
         <v>55</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5082,7 +5094,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5097,7 +5109,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5114,11 +5126,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5140,13 +5152,13 @@
         <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5187,7 +5199,7 @@
         <v>101</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>41</v>
@@ -5196,7 +5208,7 @@
         <v>102</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5211,7 +5223,7 @@
         <v>104</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5228,7 +5240,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5254,13 +5266,13 @@
         <v>55</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5310,7 +5322,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5319,7 +5331,7 @@
         <v>53</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>65</v>
@@ -5342,7 +5354,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5368,13 +5380,13 @@
         <v>67</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5400,13 +5412,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5424,7 +5436,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5456,7 +5468,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5479,16 +5491,16 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5538,7 +5550,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5553,7 +5565,7 @@
         <v>65</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -5570,7 +5582,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5596,13 +5608,13 @@
         <v>55</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5652,7 +5664,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5682,9 +5694,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5698,7 +5710,7 @@
         <v>53</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5710,13 +5722,13 @@
         <v>55</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5766,7 +5778,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>53</v>
@@ -5781,16 +5793,16 @@
         <v>65</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5798,7 +5810,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5824,13 +5836,13 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5856,31 +5868,31 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5895,16 +5907,16 @@
         <v>65</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5912,7 +5924,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5935,19 +5947,19 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5996,7 +6008,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6011,16 +6023,16 @@
         <v>65</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -6028,7 +6040,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6054,10 +6066,10 @@
         <v>55</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6108,7 +6120,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6123,7 +6135,7 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -6140,11 +6152,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6166,13 +6178,13 @@
         <v>98</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6222,7 +6234,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6237,7 +6249,7 @@
         <v>104</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -6254,11 +6266,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6280,16 +6292,16 @@
         <v>98</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6338,7 +6350,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6370,7 +6382,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6396,14 +6408,14 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6428,31 +6440,31 @@
         <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>53</v>
@@ -6467,10 +6479,10 @@
         <v>65</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6484,7 +6496,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6507,17 +6519,17 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6566,7 +6578,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6581,10 +6593,10 @@
         <v>65</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6598,7 +6610,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6621,17 +6633,17 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6680,7 +6692,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6695,10 +6707,10 @@
         <v>65</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6707,12 +6719,12 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6738,10 +6750,10 @@
         <v>55</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6792,7 +6804,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6807,7 +6819,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -6824,11 +6836,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6850,13 +6862,13 @@
         <v>98</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6897,7 +6909,7 @@
         <v>101</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>41</v>
@@ -6906,7 +6918,7 @@
         <v>102</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6921,7 +6933,7 @@
         <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
@@ -6938,7 +6950,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6964,13 +6976,13 @@
         <v>55</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7020,7 +7032,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7029,7 +7041,7 @@
         <v>53</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>65</v>
@@ -7052,7 +7064,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7078,13 +7090,13 @@
         <v>67</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7110,13 +7122,13 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -7134,7 +7146,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7166,7 +7178,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7189,16 +7201,16 @@
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7248,7 +7260,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7263,7 +7275,7 @@
         <v>65</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
@@ -7280,7 +7292,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7306,13 +7318,13 @@
         <v>55</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7362,7 +7374,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7394,7 +7406,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7417,19 +7429,19 @@
         <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7478,7 +7490,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7493,16 +7505,16 @@
         <v>65</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7510,7 +7522,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7536,10 +7548,10 @@
         <v>55</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7590,7 +7602,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7605,7 +7617,7 @@
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
@@ -7622,11 +7634,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7648,13 +7660,13 @@
         <v>98</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7695,7 +7707,7 @@
         <v>101</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>41</v>
@@ -7704,7 +7716,7 @@
         <v>102</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7719,7 +7731,7 @@
         <v>104</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -7736,7 +7748,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7762,13 +7774,13 @@
         <v>55</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7818,7 +7830,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7827,7 +7839,7 @@
         <v>53</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>65</v>
@@ -7850,7 +7862,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7876,13 +7888,13 @@
         <v>67</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7908,13 +7920,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -7932,7 +7944,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7964,7 +7976,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7987,16 +7999,16 @@
         <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8046,7 +8058,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8061,7 +8073,7 @@
         <v>65</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
@@ -8078,7 +8090,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8104,13 +8116,13 @@
         <v>55</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8160,7 +8172,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8192,7 +8204,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8215,16 +8227,16 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8274,7 +8286,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8289,16 +8301,16 @@
         <v>65</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8306,7 +8318,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8332,10 +8344,10 @@
         <v>55</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8386,7 +8398,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8401,7 +8413,7 @@
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
@@ -8418,11 +8430,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8444,13 +8456,13 @@
         <v>98</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8500,7 +8512,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8515,7 +8527,7 @@
         <v>104</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
@@ -8532,11 +8544,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8558,16 +8570,16 @@
         <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8616,7 +8628,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8648,7 +8660,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8674,13 +8686,13 @@
         <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8706,31 +8718,31 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>53</v>
@@ -8745,16 +8757,16 @@
         <v>65</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8762,7 +8774,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8785,13 +8797,13 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8842,7 +8854,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>53</v>
@@ -8857,16 +8869,16 @@
         <v>65</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8874,7 +8886,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8897,19 +8909,19 @@
         <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -8958,7 +8970,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8973,16 +8985,16 @@
         <v>65</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -8990,7 +9002,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9016,10 +9028,10 @@
         <v>55</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9070,7 +9082,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9085,7 +9097,7 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
@@ -9102,11 +9114,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9128,13 +9140,13 @@
         <v>98</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9184,7 +9196,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9199,7 +9211,7 @@
         <v>104</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -9216,11 +9228,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9242,16 +9254,16 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>41</v>
@@ -9300,7 +9312,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9332,7 +9344,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9355,16 +9367,16 @@
         <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9390,31 +9402,31 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9429,16 +9441,16 @@
         <v>65</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9446,7 +9458,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9469,13 +9481,13 @@
         <v>54</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9526,7 +9538,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9541,16 +9553,16 @@
         <v>65</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9558,7 +9570,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9581,13 +9593,13 @@
         <v>54</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9638,7 +9650,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9653,10 +9665,10 @@
         <v>65</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
@@ -9668,9 +9680,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9684,7 +9696,7 @@
         <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -9693,13 +9705,13 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9750,7 +9762,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9762,13 +9774,13 @@
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
@@ -9782,7 +9794,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9808,10 +9820,10 @@
         <v>55</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9862,7 +9874,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9877,7 +9889,7 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
@@ -9894,11 +9906,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9920,13 +9932,13 @@
         <v>98</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9976,7 +9988,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -9991,7 +10003,7 @@
         <v>104</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
@@ -10008,11 +10020,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10034,16 +10046,16 @@
         <v>98</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>41</v>
@@ -10092,7 +10104,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10124,15 +10136,15 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>53</v>
@@ -10150,16 +10162,16 @@
         <v>55</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>41</v>
@@ -10208,7 +10220,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10223,10 +10235,10 @@
         <v>65</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>41</v>
@@ -10240,7 +10252,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10263,19 +10275,19 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>41</v>
@@ -10300,13 +10312,13 @@
         <v>41</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>41</v>
@@ -10324,7 +10336,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10339,10 +10351,10 @@
         <v>65</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>41</v>
@@ -10356,7 +10368,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10379,17 +10391,17 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>41</v>
@@ -10438,7 +10450,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10453,10 +10465,10 @@
         <v>65</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>41</v>
@@ -10465,12 +10477,12 @@
         <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10493,16 +10505,16 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10552,7 +10564,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10570,7 +10582,7 @@
         <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>41</v>
@@ -10584,7 +10596,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10610,13 +10622,13 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10666,7 +10678,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10675,16 +10687,16 @@
         <v>53</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>41</v>
@@ -10698,7 +10710,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10724,16 +10736,16 @@
         <v>73</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
@@ -10758,13 +10770,13 @@
         <v>41</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>41</v>
@@ -10782,7 +10794,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10797,10 +10809,10 @@
         <v>65</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
@@ -10809,12 +10821,12 @@
         <v>41</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10837,19 +10849,19 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>41</v>
@@ -10877,10 +10889,10 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -10898,7 +10910,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10913,10 +10925,10 @@
         <v>65</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>41</v>
@@ -10930,7 +10942,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10938,13 +10950,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -10953,16 +10965,16 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11000,7 +11012,7 @@
         <v>41</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AB82" s="2"/>
       <c r="AC82" t="s" s="2">
@@ -11010,7 +11022,7 @@
         <v>102</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11019,16 +11031,16 @@
         <v>43</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -11040,12 +11052,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>41</v>
@@ -11058,7 +11070,7 @@
         <v>53</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>41</v>
@@ -11067,16 +11079,16 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11126,7 +11138,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11135,16 +11147,16 @@
         <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11158,7 +11170,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11184,10 +11196,10 @@
         <v>55</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11238,7 +11250,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11253,7 +11265,7 @@
         <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>41</v>
@@ -11270,11 +11282,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11296,13 +11308,13 @@
         <v>98</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11343,7 +11355,7 @@
         <v>101</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>41</v>
@@ -11352,7 +11364,7 @@
         <v>102</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11367,7 +11379,7 @@
         <v>104</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>41</v>
@@ -11382,9 +11394,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11398,7 +11410,7 @@
         <v>53</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -11410,13 +11422,13 @@
         <v>55</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11466,7 +11478,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11475,7 +11487,7 @@
         <v>53</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>65</v>
@@ -11498,7 +11510,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11524,13 +11536,13 @@
         <v>67</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11556,13 +11568,13 @@
         <v>41</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>41</v>
@@ -11580,7 +11592,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11612,7 +11624,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11635,16 +11647,16 @@
         <v>54</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11694,7 +11706,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11709,7 +11721,7 @@
         <v>65</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>41</v>
@@ -11726,7 +11738,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11752,13 +11764,13 @@
         <v>55</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11808,7 +11820,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11838,12 +11850,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>41</v>
@@ -11856,7 +11868,7 @@
         <v>53</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -11865,16 +11877,16 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11924,7 +11936,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -11933,16 +11945,16 @@
         <v>43</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
@@ -11956,7 +11968,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11982,10 +11994,10 @@
         <v>55</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12036,7 +12048,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12051,7 +12063,7 @@
         <v>41</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>41</v>
@@ -12068,11 +12080,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12094,13 +12106,13 @@
         <v>98</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12141,7 +12153,7 @@
         <v>101</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>41</v>
@@ -12150,7 +12162,7 @@
         <v>102</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12165,7 +12177,7 @@
         <v>104</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>41</v>
@@ -12180,9 +12192,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12196,7 +12208,7 @@
         <v>53</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
@@ -12208,13 +12220,13 @@
         <v>55</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12264,7 +12276,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12273,7 +12285,7 @@
         <v>53</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>65</v>
@@ -12296,7 +12308,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12322,13 +12334,13 @@
         <v>67</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12354,13 +12366,13 @@
         <v>41</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>41</v>
@@ -12378,7 +12390,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12410,7 +12422,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12433,16 +12445,16 @@
         <v>54</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12492,7 +12504,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12507,7 +12519,7 @@
         <v>65</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>41</v>
@@ -12524,7 +12536,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12550,13 +12562,13 @@
         <v>55</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12606,7 +12618,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12636,12 +12648,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>41</v>
@@ -12654,7 +12666,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>41</v>
@@ -12663,16 +12675,16 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -12722,7 +12734,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12731,16 +12743,16 @@
         <v>43</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
@@ -12754,7 +12766,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12780,10 +12792,10 @@
         <v>55</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12834,7 +12846,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -12849,7 +12861,7 @@
         <v>41</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>41</v>
@@ -12866,11 +12878,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12892,13 +12904,13 @@
         <v>98</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12939,7 +12951,7 @@
         <v>101</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>41</v>
@@ -12948,7 +12960,7 @@
         <v>102</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -12963,7 +12975,7 @@
         <v>104</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>41</v>
@@ -12978,9 +12990,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12994,7 +13006,7 @@
         <v>53</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>41</v>
@@ -13006,13 +13018,13 @@
         <v>55</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13062,7 +13074,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13071,7 +13083,7 @@
         <v>53</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>65</v>
@@ -13094,7 +13106,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13120,13 +13132,13 @@
         <v>67</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13152,13 +13164,13 @@
         <v>41</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>41</v>
@@ -13176,7 +13188,7 @@
         <v>41</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13208,7 +13220,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13231,16 +13243,16 @@
         <v>54</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13290,7 +13302,7 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13305,7 +13317,7 @@
         <v>65</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>41</v>
@@ -13322,7 +13334,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13348,13 +13360,13 @@
         <v>55</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13404,7 +13416,7 @@
         <v>41</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13436,7 +13448,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13459,19 +13471,19 @@
         <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>41</v>
@@ -13499,10 +13511,10 @@
         <v>77</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>41</v>
@@ -13520,7 +13532,7 @@
         <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -13529,16 +13541,16 @@
         <v>53</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>41</v>
@@ -13552,7 +13564,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13578,13 +13590,13 @@
         <v>41</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13634,7 +13646,7 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -13643,16 +13655,16 @@
         <v>43</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-ch-etoc-composition.xlsx
+++ b/output/StructureDefinition-ch-etoc-composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$112</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="476">
   <si>
     <t>Path</t>
   </si>
@@ -401,17 +401,17 @@
     <t>An information recipient to notify for urgent matters about the response. (e.g. in a clinical setting, the referring doctor has to be called by phone right away at the time the images and reports arrive. The Urgent Notification Contact for the Response can be specified already in the request. At the time the response is written, this element shall be populated to the Urgent Notification Contact element in the response.)</t>
   </si>
   <si>
-    <t>responseReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-responsereceiver}
+    <t>copyReceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-copyreceiver}
 </t>
   </si>
   <si>
-    <t>Person/organization who receives the response</t>
-  </si>
-  <si>
-    <t>Receiver of the response.</t>
+    <t>Person/organization who receives the copy of this document</t>
+  </si>
+  <si>
+    <t>Receiver of the copy of this document.</t>
   </si>
   <si>
     <t>Composition.modifierExtension</t>
@@ -715,7 +715,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-encounter)
 </t>
   </si>
   <si>
@@ -1114,7 +1114,7 @@
   </si>
   <si>
     <t>Identifier
-Reference(Composition)</t>
+Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1293,7 +1293,7 @@
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1414,16 +1414,13 @@
     <t>.entry</t>
   </si>
   <si>
-    <t>ChOrfQuestionnaire</t>
+    <t>Questionnaire</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-questionnaire)
 </t>
   </si>
   <si>
-    <t>Questionnaire</t>
-  </si>
-  <si>
     <t>Composition.section.entry.id</t>
   </si>
   <si>
@@ -1442,24 +1439,25 @@
     <t>Composition.section.entry.display</t>
   </si>
   <si>
-    <t>ChOrfQuestionnaireResponse</t>
+    <t>QuestionnaireResponse</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-questionnaireresponse)
 </t>
   </si>
   <si>
-    <t>QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>ChOrfServiceRequest</t>
+    <t>ServiceRequest</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-servicerequest)
 </t>
   </si>
   <si>
-    <t>ServiceRequest</t>
+    <t>DocumentReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-documentreference)
+</t>
   </si>
   <si>
     <t>Composition.section.emptyReason</t>
@@ -1647,7 +1645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN105"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11082,7 +11080,7 @@
         <v>450</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>443</v>
@@ -11170,7 +11168,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11282,7 +11280,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11396,7 +11394,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11510,7 +11508,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11624,7 +11622,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11738,7 +11736,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11855,7 +11853,7 @@
         <v>440</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>41</v>
@@ -11877,10 +11875,10 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>443</v>
@@ -11968,7 +11966,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12080,7 +12078,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12194,7 +12192,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12308,7 +12306,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12422,7 +12420,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12536,7 +12534,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12653,7 +12651,7 @@
         <v>440</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>41</v>
@@ -12675,10 +12673,10 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>443</v>
@@ -12766,7 +12764,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12878,7 +12876,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12992,7 +12990,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13106,7 +13104,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13220,7 +13218,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13334,7 +13332,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13446,11 +13444,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B104" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="C104" t="s" s="2">
         <v>41</v>
       </c>
@@ -13459,10 +13459,10 @@
         <v>42</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>41</v>
@@ -13471,20 +13471,18 @@
         <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>157</v>
+        <v>462</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>41</v>
       </c>
@@ -13508,13 +13506,13 @@
         <v>41</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>469</v>
+        <v>41</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>470</v>
+        <v>41</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>41</v>
@@ -13532,13 +13530,13 @@
         <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>446</v>
@@ -13547,10 +13545,10 @@
         <v>65</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>152</v>
+        <v>448</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>41</v>
@@ -13564,7 +13562,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13575,7 +13573,7 @@
         <v>42</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>41</v>
@@ -13587,17 +13585,15 @@
         <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>473</v>
+        <v>188</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>41</v>
@@ -13646,38 +13642,838 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AF105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG105" t="s" s="2">
+      <c r="L112" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG112" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AH105" t="s" s="2">
+      <c r="AH112" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AI105" t="s" s="2">
+      <c r="AI112" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="AJ105" t="s" s="2">
+      <c r="AJ112" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK105" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN105" t="s" s="2">
+      <c r="AK112" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN105">
+  <autoFilter ref="A1:AN112">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13687,7 +14483,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI111">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
